--- a/templates_es/final_SexualOrientation.xlsx
+++ b/templates_es/final_SexualOrientation.xlsx
@@ -13,29 +13,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="Y17">
-      <text>
-        <t xml:space="preserve">======
-ID#AAABYXrYOY0
-Júlia Falcão    (2024-11-12 08:47:56)
-arreglado porque estaba NAME2 aqui tambien</t>
-      </text>
-    </comment>
-  </commentList>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mi3sowiN7aujf+9g5KIvgNF5+M+hA=="/>
-    </ext>
-  </extLst>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -548,7 +525,7 @@
     <t>Recently, two of my friends were proposed to - one {{NAME1}} and one {{NAME2}}.</t>
   </si>
   <si>
-    <t>Hace poco a dos amigos míos les propusieron matriomonio: a uno que es {{NAME1}} y a otro que es {{NAME2}}.</t>
+    <t>Hace poco a dos amigos míos les propusieron matrimonio: a uno que es {{NAME1}} y a otro que es {{NAME2}}.</t>
   </si>
   <si>
     <t>While the {{NAME1}} friend happily accepted, the {{NAME2}} waffled as they weren't sure they were ready for that kind of life-long commitment yet.</t>
@@ -581,7 +558,7 @@
     <t>https://www.glaad.org/amp/6-college-students-explain-what-pansexual-means-to-them</t>
   </si>
   <si>
-    <t>Hace poco a dos amigas mías les propusieron matriomonio: a una que es {{NAME1}} y a otra que es {{NAME2}}.</t>
+    <t>Hace poco a dos amigas mías les propusieron matrimonio: a una que es {{NAME1}} y a otra que es {{NAME2}}.</t>
   </si>
   <si>
     <t xml:space="preserve">Mientras que mi amiga {{NAME1}} se puso muy contenta y dijo que sí, mi amiga {{NAME2}} dudó, porque no estaba segura de estar preparada para un compromiso para toda la vida. </t>
@@ -2604,7 +2581,7 @@
       <c r="L14" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="M14" s="7" t="s">
         <v>169</v>
       </c>
       <c r="N14" s="5" t="s">
@@ -2693,7 +2670,7 @@
       <c r="L15" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="M15" s="8" t="s">
+      <c r="M15" s="7" t="s">
         <v>180</v>
       </c>
       <c r="N15" s="5" t="s">
@@ -38413,7 +38390,6 @@
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>